--- a/psPunchInfo/punchInOut.xlsx
+++ b/psPunchInfo/punchInOut.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H36360\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="350">
   <si>
     <t>Branch</t>
   </si>
@@ -1077,19 +1072,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1114,21 +1112,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1409,23 +1405,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1483,13 +1479,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1512,13 +1504,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1541,13 +1529,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1570,13 +1554,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1599,13 +1579,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1628,13 +1604,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1657,13 +1629,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1686,13 +1654,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="10" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1715,13 +1679,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="11" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1744,13 +1704,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1773,13 +1729,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1802,13 +1754,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="14" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1831,13 +1779,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="15" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1860,13 +1804,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="16" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1889,13 +1829,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="17" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1918,13 +1854,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="18" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1947,13 +1879,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="19" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1976,13 +1904,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2005,13 +1929,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="21" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2034,13 +1954,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2063,13 +1979,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="23" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2121,13 +2033,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="25" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2150,13 +2058,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="26" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2179,13 +2083,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="27" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2208,13 +2108,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="28" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2237,13 +2133,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="29" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2266,13 +2158,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="30" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2295,13 +2183,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="31" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2324,13 +2208,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="32" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2353,13 +2233,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="33" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2382,13 +2258,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="34" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2411,13 +2283,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="35" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2440,13 +2308,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="36" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2469,13 +2333,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="37" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2498,13 +2358,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="38" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,13 +2383,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="39" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2556,13 +2408,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="40" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
@@ -2585,13 +2433,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="41" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
@@ -2614,13 +2458,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="42" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
@@ -2643,13 +2483,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="43" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2672,13 +2508,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="44" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2701,13 +2533,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="45" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2730,7 +2558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="46" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -2759,13 +2587,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="47" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2788,13 +2612,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="48" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2817,13 +2637,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="49" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,13 +2662,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="50" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>39</v>
       </c>
@@ -2875,13 +2687,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="51" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>39</v>
       </c>
@@ -2904,13 +2712,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="52" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>39</v>
       </c>
@@ -2933,13 +2737,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="53" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>39</v>
       </c>
@@ -2962,13 +2762,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="54" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>39</v>
       </c>
@@ -2991,13 +2787,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="55" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>39</v>
       </c>
@@ -3020,13 +2812,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="56" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>39</v>
       </c>
@@ -3049,13 +2837,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="57" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3078,13 +2862,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="58" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>39</v>
       </c>
@@ -3107,13 +2887,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="59" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>39</v>
       </c>
@@ -3136,13 +2912,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="60" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>39</v>
       </c>
@@ -3165,13 +2937,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="61" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>39</v>
       </c>
@@ -3194,13 +2962,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="62" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>39</v>
       </c>
@@ -3223,13 +2987,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="63" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>39</v>
       </c>
@@ -3252,13 +3012,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="64" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>39</v>
       </c>
@@ -3281,13 +3037,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="65" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>39</v>
       </c>
@@ -3310,7 +3062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="66" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -3339,13 +3091,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="67" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>62</v>
       </c>
@@ -3368,13 +3116,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="68" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>62</v>
       </c>
@@ -3397,13 +3141,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="69" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>62</v>
       </c>
@@ -3426,13 +3166,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="70" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3455,13 +3191,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="71" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3484,13 +3216,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="72" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>62</v>
       </c>
@@ -3513,13 +3241,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="73" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>62</v>
       </c>
@@ -3542,13 +3266,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="74" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>62</v>
       </c>
@@ -3571,13 +3291,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="75" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,13 +3316,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="76" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>62</v>
       </c>
@@ -3629,13 +3341,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="77" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>62</v>
       </c>
@@ -3658,13 +3366,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="78" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>62</v>
       </c>
@@ -3687,13 +3391,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="79" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>62</v>
       </c>
@@ -3716,13 +3416,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="80" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>62</v>
       </c>
@@ -3745,13 +3441,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="81" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,13 +3466,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="82" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>62</v>
       </c>
@@ -3803,13 +3491,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="83" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>62</v>
       </c>
@@ -3832,13 +3516,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="84" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>62</v>
       </c>
@@ -3861,13 +3541,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="85" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,13 +3566,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="86" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>62</v>
       </c>
@@ -3919,13 +3591,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="87" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,13 +3616,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="88" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>62</v>
       </c>
@@ -3977,13 +3641,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="89" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>62</v>
       </c>
@@ -4006,13 +3666,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="90" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>62</v>
       </c>
@@ -4035,13 +3691,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="91" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,13 +3716,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="92" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>62</v>
       </c>
@@ -4093,7 +3741,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="93" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -4122,13 +3770,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="94" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
         <v>88</v>
       </c>
@@ -4151,13 +3795,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="95" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>88</v>
       </c>
@@ -4180,13 +3820,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="96" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>88</v>
       </c>
@@ -4209,13 +3845,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="97" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>88</v>
       </c>
@@ -4238,13 +3870,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="98" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>88</v>
       </c>
@@ -4267,13 +3895,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="99" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4296,13 +3920,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="100" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,13 +3945,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="101" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>88</v>
       </c>
@@ -4354,13 +3970,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="102" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>88</v>
       </c>
@@ -4383,13 +3995,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="103" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>88</v>
       </c>
@@ -4412,13 +4020,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="104" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>88</v>
       </c>
@@ -4441,13 +4045,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="105" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
         <v>88</v>
       </c>
@@ -4470,13 +4070,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="106" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>88</v>
       </c>
@@ -4499,13 +4095,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="107" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
         <v>88</v>
       </c>
@@ -4528,13 +4120,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="108" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
         <v>88</v>
       </c>
@@ -4557,13 +4145,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="109" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
         <v>88</v>
       </c>
@@ -4586,13 +4170,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="110" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
         <v>88</v>
       </c>
@@ -4615,13 +4195,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="111" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
         <v>88</v>
       </c>
@@ -4644,13 +4220,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="112" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
         <v>88</v>
       </c>
@@ -4673,13 +4245,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="113" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
         <v>88</v>
       </c>
@@ -4702,13 +4270,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="114" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>88</v>
       </c>
@@ -4731,13 +4295,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="115" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>88</v>
       </c>
@@ -4760,7 +4320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="116" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -4789,13 +4349,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="117" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>112</v>
       </c>
@@ -4818,13 +4374,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="118" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>112</v>
       </c>
@@ -4847,13 +4399,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="119" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
         <v>112</v>
       </c>
@@ -4876,13 +4424,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="120" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
         <v>112</v>
       </c>
@@ -4905,13 +4449,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="121" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
         <v>112</v>
       </c>
@@ -4934,13 +4474,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="122" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>112</v>
       </c>
@@ -4963,13 +4499,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="123" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
         <v>112</v>
       </c>
@@ -4992,13 +4524,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="124" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
         <v>112</v>
       </c>
@@ -5021,13 +4549,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="125" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
         <v>112</v>
       </c>
@@ -5050,13 +4574,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
         <v>112</v>
       </c>
@@ -5079,13 +4599,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="127" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>112</v>
       </c>
@@ -5108,13 +4624,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="128" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
         <v>112</v>
       </c>
@@ -5137,7 +4649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="129" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -5166,13 +4678,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="130" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
         <v>126</v>
       </c>
@@ -5195,13 +4703,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="131" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
         <v>126</v>
       </c>
@@ -5224,13 +4728,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="132" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
         <v>126</v>
       </c>
@@ -5253,13 +4753,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="133" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>126</v>
       </c>
@@ -5282,13 +4778,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="134" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
         <v>126</v>
       </c>
@@ -5311,13 +4803,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="135" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
         <v>126</v>
       </c>
@@ -5340,13 +4828,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="136" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
         <v>126</v>
       </c>
@@ -5369,13 +4853,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="137" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
         <v>126</v>
       </c>
@@ -5398,13 +4878,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="138" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>126</v>
       </c>
@@ -5427,13 +4903,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="139" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
         <v>126</v>
       </c>
@@ -5456,13 +4928,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="140" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>126</v>
       </c>
@@ -5485,13 +4953,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="141" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
         <v>126</v>
       </c>
@@ -5514,13 +4978,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="142" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
         <v>126</v>
       </c>
@@ -5543,13 +5003,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="143" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>126</v>
       </c>
@@ -5572,13 +5028,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="144" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
         <v>126</v>
       </c>
@@ -5601,13 +5053,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="145" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
         <v>126</v>
       </c>
@@ -5630,13 +5078,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="146" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
         <v>126</v>
       </c>
@@ -5659,13 +5103,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="147" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>126</v>
       </c>
@@ -5688,13 +5128,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="148" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>126</v>
       </c>
@@ -5717,13 +5153,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="149" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
         <v>126</v>
       </c>
@@ -5746,13 +5178,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="150" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
         <v>126</v>
       </c>
@@ -5775,13 +5203,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="151" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
         <v>126</v>
       </c>
@@ -5804,7 +5228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="152" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
@@ -5833,13 +5257,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="153" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
         <v>147</v>
       </c>
@@ -5862,13 +5282,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="154" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
         <v>147</v>
       </c>
@@ -5891,13 +5307,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="155" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
         <v>147</v>
       </c>
@@ -5920,13 +5332,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="156" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
         <v>147</v>
       </c>
@@ -5949,13 +5357,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="157" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
         <v>147</v>
       </c>
@@ -5978,13 +5382,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="158" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
         <v>147</v>
       </c>
@@ -6007,13 +5407,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="159" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
         <v>147</v>
       </c>
@@ -6036,13 +5432,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="160" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
         <v>147</v>
       </c>
@@ -6065,13 +5457,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="161" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
         <v>147</v>
       </c>
@@ -6094,13 +5482,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="162" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
         <v>147</v>
       </c>
@@ -6123,13 +5507,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="163" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
         <v>147</v>
       </c>
@@ -6152,13 +5532,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="164" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
         <v>147</v>
       </c>
@@ -6181,13 +5557,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="165" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="1" t="s">
         <v>147</v>
       </c>
@@ -6210,13 +5582,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="166" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
       <c r="C166" s="1" t="s">
         <v>147</v>
       </c>
@@ -6239,13 +5607,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="167" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
         <v>147</v>
       </c>
@@ -6268,13 +5632,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="168" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
         <v>147</v>
       </c>
@@ -6297,7 +5657,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="169" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -6326,13 +5686,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="170" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
         <v>162</v>
       </c>
@@ -6355,13 +5711,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="171" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
         <v>162</v>
       </c>
@@ -6384,13 +5736,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="172" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
         <v>162</v>
       </c>
@@ -6413,13 +5761,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="173" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
         <v>162</v>
       </c>
@@ -6442,13 +5786,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="174" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
         <v>162</v>
       </c>
@@ -6471,13 +5811,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="175" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
       <c r="C175" s="1" t="s">
         <v>162</v>
       </c>
@@ -6500,13 +5836,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="176" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
       <c r="C176" s="1" t="s">
         <v>162</v>
       </c>
@@ -6529,13 +5861,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="177" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
         <v>162</v>
       </c>
@@ -6558,13 +5886,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="178" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
         <v>162</v>
       </c>
@@ -6587,13 +5911,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="179" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
         <v>162</v>
       </c>
@@ -6616,13 +5936,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="180" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
         <v>162</v>
       </c>
@@ -6645,13 +5961,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="181" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
       <c r="C181" s="1" t="s">
         <v>162</v>
       </c>
@@ -6674,13 +5986,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="182" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
         <v>162</v>
       </c>
@@ -6703,13 +6011,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="183" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
         <v>162</v>
       </c>
@@ -6732,13 +6036,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="184" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
         <v>162</v>
       </c>
@@ -6761,13 +6061,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="185" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
         <v>162</v>
       </c>
@@ -6790,13 +6086,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="186" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
         <v>162</v>
       </c>
@@ -6819,7 +6111,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="187" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
@@ -6848,13 +6140,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="188" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
         <v>177</v>
       </c>
@@ -6877,13 +6165,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="189" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>177</v>
       </c>
@@ -6906,13 +6190,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="190" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>177</v>
       </c>
@@ -6935,13 +6215,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="191" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>177</v>
       </c>
@@ -6964,13 +6240,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="192" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>177</v>
       </c>
@@ -6993,13 +6265,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="193" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>177</v>
       </c>
@@ -7022,13 +6290,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="194" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
       <c r="C194" s="1" t="s">
         <v>177</v>
       </c>
@@ -7051,13 +6315,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="195" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
         <v>177</v>
       </c>
@@ -7080,13 +6340,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="196" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
         <v>177</v>
       </c>
@@ -7109,13 +6365,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="197" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
         <v>177</v>
       </c>
@@ -7138,13 +6390,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="198" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>177</v>
       </c>
@@ -7167,13 +6415,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="199" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
         <v>177</v>
       </c>
@@ -7196,13 +6440,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="200" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
         <v>177</v>
       </c>
@@ -7225,13 +6465,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="201" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>177</v>
       </c>
@@ -7254,13 +6490,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="202" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
         <v>177</v>
       </c>
@@ -7283,13 +6515,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="203" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>177</v>
       </c>
@@ -7312,13 +6540,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="204" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
         <v>177</v>
       </c>
@@ -7341,13 +6565,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="205" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
         <v>177</v>
       </c>
@@ -7370,13 +6590,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="206" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
         <v>177</v>
       </c>
@@ -7399,13 +6615,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="207" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
         <v>177</v>
       </c>
@@ -7428,13 +6640,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="208" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
       <c r="C208" s="1" t="s">
         <v>177</v>
       </c>
@@ -7457,7 +6665,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="209" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>9</v>
       </c>
@@ -7486,13 +6694,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="210" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
         <v>193</v>
       </c>
@@ -7515,13 +6719,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="211" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
         <v>193</v>
       </c>
@@ -7544,13 +6744,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="212" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
         <v>193</v>
       </c>
@@ -7573,13 +6769,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="213" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
         <v>193</v>
       </c>
@@ -7602,13 +6794,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="214" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
       <c r="C214" s="1" t="s">
         <v>193</v>
       </c>
@@ -7631,13 +6819,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="215" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
         <v>193</v>
       </c>
@@ -7660,13 +6844,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="216" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
         <v>193</v>
       </c>
@@ -7689,13 +6869,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="217" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
         <v>193</v>
       </c>
@@ -7718,13 +6894,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="218" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
         <v>193</v>
       </c>
@@ -7747,13 +6919,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="219" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
         <v>193</v>
       </c>
@@ -7776,13 +6944,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="220" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
         <v>193</v>
       </c>
@@ -7805,13 +6969,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="221" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
       <c r="C221" s="1" t="s">
         <v>193</v>
       </c>
@@ -7834,13 +6994,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="222" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
         <v>193</v>
       </c>
@@ -7863,13 +7019,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="223" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
       <c r="C223" s="1" t="s">
         <v>193</v>
       </c>
@@ -7892,13 +7044,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="224" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
         <v>193</v>
       </c>
@@ -7921,13 +7069,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="225" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
         <v>193</v>
       </c>
@@ -7950,13 +7094,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="226" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
         <v>193</v>
       </c>
@@ -7979,13 +7119,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="227" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
         <v>193</v>
       </c>
@@ -8008,13 +7144,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="228" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
         <v>193</v>
       </c>
@@ -8037,7 +7169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="229" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>9</v>
       </c>
@@ -8066,13 +7198,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="230" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
       <c r="C230" s="1" t="s">
         <v>211</v>
       </c>
@@ -8095,13 +7223,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="231" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
         <v>211</v>
       </c>
@@ -8124,13 +7248,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="232" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
       <c r="C232" s="1" t="s">
         <v>211</v>
       </c>
@@ -8153,13 +7273,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="233" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
       <c r="C233" s="1" t="s">
         <v>211</v>
       </c>
@@ -8182,13 +7298,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="234" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
         <v>211</v>
       </c>
@@ -8211,13 +7323,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="235" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
         <v>211</v>
       </c>
@@ -8240,13 +7348,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="236" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
       <c r="C236" s="1" t="s">
         <v>211</v>
       </c>
@@ -8269,13 +7373,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="237" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
       <c r="C237" s="1" t="s">
         <v>211</v>
       </c>
@@ -8298,13 +7398,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="238" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
       <c r="C238" s="1" t="s">
         <v>211</v>
       </c>
@@ -8327,13 +7423,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="239" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
         <v>211</v>
       </c>
@@ -8356,13 +7448,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="240" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
         <v>211</v>
       </c>
@@ -8385,13 +7473,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="241" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>211</v>
       </c>
@@ -8414,13 +7498,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="242" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
         <v>211</v>
       </c>
@@ -8443,13 +7523,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="243" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
         <v>211</v>
       </c>
@@ -8472,13 +7548,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="244" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
         <v>211</v>
       </c>
@@ -8501,13 +7573,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="245" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
         <v>211</v>
       </c>
@@ -8530,13 +7598,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="246" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
         <v>211</v>
       </c>
@@ -8559,13 +7623,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="247" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
         <v>211</v>
       </c>
@@ -8588,13 +7648,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="248" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
         <v>211</v>
       </c>
@@ -8617,13 +7673,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="249" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
       <c r="C249" s="1" t="s">
         <v>211</v>
       </c>
@@ -8646,13 +7698,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="250" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
       <c r="C250" s="1" t="s">
         <v>211</v>
       </c>
@@ -8675,13 +7723,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="251" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
         <v>211</v>
       </c>
@@ -8704,7 +7748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="252" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>9</v>
       </c>
@@ -8733,13 +7777,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="253" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
         <v>229</v>
       </c>
@@ -8762,13 +7802,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="254" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
         <v>229</v>
       </c>
@@ -8791,13 +7827,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="255" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
         <v>229</v>
       </c>
@@ -8820,13 +7852,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="256" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
         <v>229</v>
       </c>
@@ -8849,13 +7877,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="257" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
       <c r="C257" s="1" t="s">
         <v>229</v>
       </c>
@@ -8878,13 +7902,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="258" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
         <v>229</v>
       </c>
@@ -8907,13 +7927,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="259" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
       <c r="C259" s="1" t="s">
         <v>229</v>
       </c>
@@ -8936,13 +7952,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="260" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
         <v>229</v>
       </c>
@@ -8965,13 +7977,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="261" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
       <c r="C261" s="1" t="s">
         <v>229</v>
       </c>
@@ -8994,13 +8002,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="262" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
       <c r="C262" s="1" t="s">
         <v>229</v>
       </c>
@@ -9023,13 +8027,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="263" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
       <c r="C263" s="1" t="s">
         <v>229</v>
       </c>
@@ -9052,7 +8052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="264" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>9</v>
       </c>
@@ -9081,13 +8081,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="265" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
       <c r="C265" s="1" t="s">
         <v>238</v>
       </c>
@@ -9110,13 +8106,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="266" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
       <c r="C266" s="1" t="s">
         <v>238</v>
       </c>
@@ -9139,13 +8131,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="267" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
       <c r="C267" s="1" t="s">
         <v>238</v>
       </c>
@@ -9168,13 +8156,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="268" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
       <c r="C268" s="1" t="s">
         <v>238</v>
       </c>
@@ -9197,13 +8181,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="269" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
       <c r="C269" s="1" t="s">
         <v>238</v>
       </c>
@@ -9226,13 +8206,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="270" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
       <c r="C270" s="1" t="s">
         <v>238</v>
       </c>
@@ -9255,13 +8231,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="271" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
       <c r="C271" s="1" t="s">
         <v>238</v>
       </c>
@@ -9284,13 +8256,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="272" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
         <v>238</v>
       </c>
@@ -9313,13 +8281,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="273" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
         <v>238</v>
       </c>
@@ -9342,13 +8306,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="274" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
       <c r="C274" s="1" t="s">
         <v>238</v>
       </c>
@@ -9371,13 +8331,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="275" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
         <v>238</v>
       </c>
@@ -9400,13 +8356,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="276" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
       <c r="C276" s="1" t="s">
         <v>238</v>
       </c>
@@ -9429,13 +8381,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="277" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
       <c r="C277" s="1" t="s">
         <v>238</v>
       </c>
@@ -9458,13 +8406,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="278" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
       <c r="C278" s="1" t="s">
         <v>238</v>
       </c>
@@ -9487,13 +8431,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="279" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
       <c r="C279" s="1" t="s">
         <v>238</v>
       </c>
@@ -9516,13 +8456,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="280" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
       <c r="C280" s="1" t="s">
         <v>238</v>
       </c>
@@ -9545,13 +8481,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="281" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
       <c r="C281" s="1" t="s">
         <v>238</v>
       </c>
@@ -9574,13 +8506,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="282" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
       <c r="C282" s="1" t="s">
         <v>238</v>
       </c>
@@ -9603,13 +8531,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="283" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
       <c r="C283" s="1" t="s">
         <v>238</v>
       </c>
@@ -9632,7 +8556,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="284" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>9</v>
       </c>
@@ -9661,13 +8585,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="285" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
         <v>251</v>
       </c>
@@ -9690,13 +8610,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="286" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
         <v>251</v>
       </c>
@@ -9719,13 +8635,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="287" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
         <v>251</v>
       </c>
@@ -9748,13 +8660,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="288" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
       <c r="C288" s="1" t="s">
         <v>251</v>
       </c>
@@ -9777,13 +8685,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="289" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
         <v>251</v>
       </c>
@@ -9806,13 +8710,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="290" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
       <c r="C290" s="1" t="s">
         <v>251</v>
       </c>
@@ -9835,13 +8735,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="291" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
       <c r="C291" s="1" t="s">
         <v>251</v>
       </c>
@@ -9864,13 +8760,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="292" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
       <c r="C292" s="1" t="s">
         <v>251</v>
       </c>
@@ -9893,13 +8785,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="293" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
       <c r="C293" s="1" t="s">
         <v>251</v>
       </c>
@@ -9922,13 +8810,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="294" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
       <c r="C294" s="1" t="s">
         <v>251</v>
       </c>
@@ -9951,13 +8835,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="295" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
       <c r="C295" s="1" t="s">
         <v>251</v>
       </c>
@@ -9980,13 +8860,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="296" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
       <c r="C296" s="1" t="s">
         <v>251</v>
       </c>
@@ -10009,13 +8885,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="297" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
       <c r="C297" s="1" t="s">
         <v>251</v>
       </c>
@@ -10038,13 +8910,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="298" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
       <c r="C298" s="1" t="s">
         <v>251</v>
       </c>
@@ -10067,13 +8935,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="299" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
         <v>251</v>
       </c>
@@ -10096,13 +8960,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="300" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
         <v>251</v>
       </c>
@@ -10125,13 +8985,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="301" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
       <c r="C301" s="1" t="s">
         <v>251</v>
       </c>
@@ -10154,13 +9010,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="302" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
       <c r="C302" s="1" t="s">
         <v>251</v>
       </c>
@@ -10183,13 +9035,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="303" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
       <c r="C303" s="1" t="s">
         <v>251</v>
       </c>
@@ -10212,13 +9060,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="304" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
       <c r="C304" s="1" t="s">
         <v>251</v>
       </c>
@@ -10241,13 +9085,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="305" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
       <c r="C305" s="1" t="s">
         <v>251</v>
       </c>
@@ -10270,13 +9110,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="306" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
       <c r="C306" s="1" t="s">
         <v>251</v>
       </c>
@@ -10299,7 +9135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="307" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -10328,13 +9164,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="308" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
       <c r="C308" s="1" t="s">
         <v>270</v>
       </c>
@@ -10357,13 +9189,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="309" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
       <c r="C309" s="1" t="s">
         <v>270</v>
       </c>
@@ -10386,13 +9214,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="310" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
       <c r="C310" s="1" t="s">
         <v>270</v>
       </c>
@@ -10415,13 +9239,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="311" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
       <c r="C311" s="1" t="s">
         <v>270</v>
       </c>
@@ -10444,13 +9264,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="312" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
       <c r="C312" s="1" t="s">
         <v>270</v>
       </c>
@@ -10473,13 +9289,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A313" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="313" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
       <c r="C313" s="1" t="s">
         <v>270</v>
       </c>
@@ -10502,13 +9314,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="314" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
       <c r="C314" s="1" t="s">
         <v>270</v>
       </c>
@@ -10531,13 +9339,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A315" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="315" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
       <c r="C315" s="1" t="s">
         <v>270</v>
       </c>
@@ -10560,13 +9364,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="316" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
       <c r="C316" s="1" t="s">
         <v>270</v>
       </c>
@@ -10589,13 +9389,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="317" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
       <c r="C317" s="1" t="s">
         <v>270</v>
       </c>
@@ -10618,13 +9414,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="318" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
       <c r="C318" s="1" t="s">
         <v>270</v>
       </c>
@@ -10647,13 +9439,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="319" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
       <c r="C319" s="1" t="s">
         <v>270</v>
       </c>
@@ -10676,13 +9464,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="320" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
       <c r="C320" s="1" t="s">
         <v>270</v>
       </c>
@@ -10705,13 +9489,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="321" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
       <c r="C321" s="1" t="s">
         <v>270</v>
       </c>
@@ -10734,13 +9514,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="322" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
       <c r="C322" s="1" t="s">
         <v>270</v>
       </c>
@@ -10763,13 +9539,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="323" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
       <c r="C323" s="1" t="s">
         <v>270</v>
       </c>
@@ -10792,13 +9564,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="324" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
       <c r="C324" s="1" t="s">
         <v>270</v>
       </c>
@@ -10821,13 +9589,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="325" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
       <c r="C325" s="1" t="s">
         <v>270</v>
       </c>
@@ -10850,13 +9614,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="326" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
         <v>270</v>
       </c>
@@ -10879,13 +9639,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A327" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="327" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
         <v>270</v>
       </c>
@@ -10908,13 +9664,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="328" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
       <c r="C328" s="1" t="s">
         <v>270</v>
       </c>
@@ -10937,7 +9689,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="329" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>9</v>
       </c>
@@ -10966,13 +9718,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A330" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="330" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
       <c r="C330" s="1" t="s">
         <v>282</v>
       </c>
@@ -10995,13 +9743,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="331" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
       <c r="C331" s="1" t="s">
         <v>282</v>
       </c>
@@ -11024,13 +9768,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A332" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="332" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
       <c r="C332" s="1" t="s">
         <v>282</v>
       </c>
@@ -11053,13 +9793,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="333" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
       <c r="C333" s="1" t="s">
         <v>282</v>
       </c>
@@ -11082,13 +9818,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="334" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
       <c r="C334" s="1" t="s">
         <v>282</v>
       </c>
@@ -11111,13 +9843,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="335" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
       <c r="C335" s="1" t="s">
         <v>282</v>
       </c>
@@ -11140,13 +9868,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="336" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
       <c r="C336" s="1" t="s">
         <v>282</v>
       </c>
@@ -11169,13 +9893,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="337" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
       <c r="C337" s="1" t="s">
         <v>282</v>
       </c>
@@ -11198,13 +9918,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="338" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
       <c r="C338" s="1" t="s">
         <v>282</v>
       </c>
@@ -11227,13 +9943,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="339" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
       <c r="C339" s="1" t="s">
         <v>282</v>
       </c>
@@ -11256,13 +9968,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="340" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
       <c r="C340" s="1" t="s">
         <v>282</v>
       </c>
@@ -11285,13 +9993,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="341" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
       <c r="C341" s="1" t="s">
         <v>282</v>
       </c>
@@ -11314,13 +10018,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="342" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
       <c r="C342" s="1" t="s">
         <v>282</v>
       </c>
@@ -11343,13 +10043,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="343" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
       <c r="C343" s="1" t="s">
         <v>282</v>
       </c>
@@ -11372,13 +10068,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="344" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
       <c r="C344" s="1" t="s">
         <v>282</v>
       </c>
@@ -11401,13 +10093,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="345" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
       <c r="C345" s="1" t="s">
         <v>282</v>
       </c>
@@ -11430,13 +10118,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="346" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
       <c r="C346" s="1" t="s">
         <v>282</v>
       </c>
@@ -11459,13 +10143,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="347" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
       <c r="C347" s="1" t="s">
         <v>282</v>
       </c>
@@ -11488,13 +10168,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="348" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
       <c r="C348" s="1" t="s">
         <v>282</v>
       </c>
@@ -11517,7 +10193,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="349" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>9</v>
       </c>
@@ -11546,13 +10222,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="350" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
       <c r="C350" s="1" t="s">
         <v>297</v>
       </c>
@@ -11575,13 +10247,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="351" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
       <c r="C351" s="1" t="s">
         <v>297</v>
       </c>
@@ -11604,13 +10272,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="352" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
       <c r="C352" s="1" t="s">
         <v>297</v>
       </c>
@@ -11633,13 +10297,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="353" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
         <v>297</v>
       </c>
@@ -11662,13 +10322,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="354" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>297</v>
       </c>
@@ -11691,13 +10347,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="355" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
       <c r="C355" s="1" t="s">
         <v>297</v>
       </c>
@@ -11720,13 +10372,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="356" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
       <c r="C356" s="1" t="s">
         <v>297</v>
       </c>
@@ -11749,13 +10397,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="357" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
       <c r="C357" s="1" t="s">
         <v>297</v>
       </c>
@@ -11778,13 +10422,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="358" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
       <c r="C358" s="1" t="s">
         <v>297</v>
       </c>
@@ -11807,13 +10447,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="359" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
       <c r="C359" s="1" t="s">
         <v>297</v>
       </c>
@@ -11836,13 +10472,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="360" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
       <c r="C360" s="1" t="s">
         <v>297</v>
       </c>
@@ -11865,13 +10497,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="361" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
       <c r="C361" s="1" t="s">
         <v>297</v>
       </c>
@@ -11894,13 +10522,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="362" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
       <c r="C362" s="1" t="s">
         <v>297</v>
       </c>
@@ -11923,13 +10547,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="363" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
       <c r="C363" s="1" t="s">
         <v>297</v>
       </c>
@@ -11952,13 +10572,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="364" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
       <c r="C364" s="1" t="s">
         <v>297</v>
       </c>
@@ -11981,13 +10597,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="365" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
       <c r="C365" s="1" t="s">
         <v>297</v>
       </c>
@@ -12010,13 +10622,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="366" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
       <c r="C366" s="1" t="s">
         <v>297</v>
       </c>
@@ -12039,13 +10647,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="367" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
       <c r="C367" s="1" t="s">
         <v>297</v>
       </c>
@@ -12068,13 +10672,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="368" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
       <c r="C368" s="1" t="s">
         <v>297</v>
       </c>
@@ -12097,13 +10697,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="369" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
       <c r="C369" s="1" t="s">
         <v>297</v>
       </c>
@@ -12126,13 +10722,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="370" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
       <c r="C370" s="1" t="s">
         <v>297</v>
       </c>
@@ -12155,13 +10747,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="371" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
       <c r="C371" s="1" t="s">
         <v>297</v>
       </c>
@@ -12184,7 +10772,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="372" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>9</v>
       </c>
@@ -12213,13 +10801,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="373" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
       <c r="C373" s="1" t="s">
         <v>313</v>
       </c>
@@ -12242,13 +10826,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A374" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="374" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
       <c r="C374" s="1" t="s">
         <v>313</v>
       </c>
@@ -12271,13 +10851,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="375" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
       <c r="C375" s="1" t="s">
         <v>313</v>
       </c>
@@ -12300,13 +10876,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="376" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
       <c r="C376" s="1" t="s">
         <v>313</v>
       </c>
@@ -12329,13 +10901,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="377" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
       <c r="C377" s="1" t="s">
         <v>313</v>
       </c>
@@ -12358,13 +10926,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="378" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
       <c r="C378" s="1" t="s">
         <v>313</v>
       </c>
@@ -12387,13 +10951,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="379" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
       <c r="C379" s="1" t="s">
         <v>313</v>
       </c>
@@ -12416,13 +10976,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="380" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
       <c r="C380" s="1" t="s">
         <v>313</v>
       </c>
@@ -12445,13 +11001,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="381" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
       <c r="C381" s="1" t="s">
         <v>313</v>
       </c>
@@ -12474,13 +11026,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="382" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
       <c r="C382" s="1" t="s">
         <v>313</v>
       </c>
@@ -12503,13 +11051,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="383" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
       <c r="C383" s="1" t="s">
         <v>313</v>
       </c>
@@ -12532,13 +11076,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="384" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
       <c r="C384" s="1" t="s">
         <v>313</v>
       </c>
@@ -12561,13 +11101,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="385" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
       <c r="C385" s="1" t="s">
         <v>313</v>
       </c>
@@ -12590,13 +11126,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A386" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="386" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
       <c r="C386" s="1" t="s">
         <v>313</v>
       </c>
@@ -12619,13 +11151,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A387" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="387" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
       <c r="C387" s="1" t="s">
         <v>313</v>
       </c>
@@ -12648,13 +11176,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="388" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
       <c r="C388" s="1" t="s">
         <v>313</v>
       </c>
@@ -12677,13 +11201,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A389" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="389" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
       <c r="C389" s="1" t="s">
         <v>313</v>
       </c>
@@ -12706,13 +11226,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A390" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="390" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
       <c r="C390" s="1" t="s">
         <v>313</v>
       </c>
@@ -12735,13 +11251,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A391" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="391" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
       <c r="C391" s="1" t="s">
         <v>313</v>
       </c>
@@ -12764,13 +11276,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="392" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
       <c r="C392" s="1" t="s">
         <v>313</v>
       </c>
@@ -12793,7 +11301,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="393" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>9</v>
       </c>
@@ -12822,13 +11330,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="394" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
       <c r="C394" s="1" t="s">
         <v>323</v>
       </c>
@@ -12851,13 +11355,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A395" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="395" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
       <c r="C395" s="1" t="s">
         <v>323</v>
       </c>
@@ -12880,13 +11380,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A396" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="396" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
       <c r="C396" s="1" t="s">
         <v>323</v>
       </c>
@@ -12909,13 +11405,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A397" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="397" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
       <c r="C397" s="1" t="s">
         <v>323</v>
       </c>
@@ -12938,13 +11430,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A398" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="398" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
       <c r="C398" s="1" t="s">
         <v>323</v>
       </c>
@@ -12967,13 +11455,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A399" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="399" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
       <c r="C399" s="1" t="s">
         <v>323</v>
       </c>
@@ -12996,13 +11480,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="400" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
       <c r="C400" s="1" t="s">
         <v>323</v>
       </c>
@@ -13025,13 +11505,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A401" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="401" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
       <c r="C401" s="1" t="s">
         <v>323</v>
       </c>
@@ -13054,13 +11530,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="402" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
       <c r="C402" s="1" t="s">
         <v>323</v>
       </c>
@@ -13083,13 +11555,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A403" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="403" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
       <c r="C403" s="1" t="s">
         <v>323</v>
       </c>
@@ -13112,13 +11580,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A404" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="404" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
       <c r="C404" s="1" t="s">
         <v>323</v>
       </c>
@@ -13141,13 +11605,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A405" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="405" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
       <c r="C405" s="1" t="s">
         <v>323</v>
       </c>
@@ -13170,13 +11630,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A406" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="406" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
       <c r="C406" s="1" t="s">
         <v>323</v>
       </c>
@@ -13199,13 +11655,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A407" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="407" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
       <c r="C407" s="1" t="s">
         <v>323</v>
       </c>
@@ -13228,13 +11680,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A408" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="408" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
       <c r="C408" s="1" t="s">
         <v>323</v>
       </c>
@@ -13257,13 +11705,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A409" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="409" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
       <c r="C409" s="1" t="s">
         <v>323</v>
       </c>
@@ -13286,13 +11730,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A410" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="410" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
       <c r="C410" s="1" t="s">
         <v>323</v>
       </c>
@@ -13315,13 +11755,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>87</v>
-      </c>
+    <row r="411" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
       <c r="C411" s="1" t="s">
         <v>323</v>
       </c>
@@ -13344,7 +11780,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="412" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>9</v>
       </c>
@@ -13373,13 +11809,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A413" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="413" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
       <c r="C413" s="1" t="s">
         <v>335</v>
       </c>
@@ -13402,13 +11834,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A414" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="414" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
       <c r="C414" s="1" t="s">
         <v>335</v>
       </c>
@@ -13431,13 +11859,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A415" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="415" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
       <c r="C415" s="1" t="s">
         <v>335</v>
       </c>
@@ -13460,13 +11884,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A416" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="416" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
       <c r="C416" s="1" t="s">
         <v>335</v>
       </c>
@@ -13489,13 +11909,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A417" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="417" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
       <c r="C417" s="1" t="s">
         <v>335</v>
       </c>
@@ -13518,13 +11934,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A418" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="418" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
       <c r="C418" s="1" t="s">
         <v>335</v>
       </c>
@@ -13547,13 +11959,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A419" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="419" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
       <c r="C419" s="1" t="s">
         <v>335</v>
       </c>
@@ -13576,13 +11984,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A420" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="420" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
       <c r="C420" s="1" t="s">
         <v>335</v>
       </c>
@@ -13605,13 +12009,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A421" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="421" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
       <c r="C421" s="1" t="s">
         <v>335</v>
       </c>
@@ -13634,13 +12034,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A422" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="422" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
       <c r="C422" s="1" t="s">
         <v>335</v>
       </c>
@@ -13663,13 +12059,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A423" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="423" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
       <c r="C423" s="1" t="s">
         <v>335</v>
       </c>
@@ -13692,13 +12084,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A424" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="424" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
       <c r="C424" s="1" t="s">
         <v>335</v>
       </c>
@@ -13721,13 +12109,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A425" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="425" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
       <c r="C425" s="1" t="s">
         <v>335</v>
       </c>
@@ -13750,13 +12134,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A426" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="426" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
       <c r="C426" s="1" t="s">
         <v>335</v>
       </c>
@@ -13779,13 +12159,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A427" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="427" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
       <c r="C427" s="1" t="s">
         <v>335</v>
       </c>
@@ -13808,13 +12184,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="428" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
       <c r="C428" s="1" t="s">
         <v>335</v>
       </c>
@@ -13837,13 +12209,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="429" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
       <c r="C429" s="1" t="s">
         <v>335</v>
       </c>
@@ -13866,13 +12234,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="430" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
       <c r="C430" s="1" t="s">
         <v>335</v>
       </c>
@@ -13895,13 +12259,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="431" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
       <c r="C431" s="1" t="s">
         <v>335</v>
       </c>
@@ -13924,13 +12284,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="432" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
       <c r="C432" s="1" t="s">
         <v>335</v>
       </c>
@@ -13953,13 +12309,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="433" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
       <c r="C433" s="1" t="s">
         <v>335</v>
       </c>
@@ -13982,13 +12334,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A434" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="434" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
       <c r="C434" s="1" t="s">
         <v>335</v>
       </c>
@@ -14011,7 +12359,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="435" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>9</v>
       </c>
@@ -14040,13 +12388,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="436" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
       <c r="C436" s="1" t="s">
         <v>344</v>
       </c>
@@ -14069,13 +12413,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="437" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
       <c r="C437" s="1" t="s">
         <v>344</v>
       </c>
@@ -14098,13 +12438,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A438" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="438" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
       <c r="C438" s="1" t="s">
         <v>344</v>
       </c>
@@ -14127,13 +12463,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A439" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="439" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
       <c r="C439" s="1" t="s">
         <v>344</v>
       </c>
@@ -14156,13 +12488,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A440" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="440" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
       <c r="C440" s="1" t="s">
         <v>344</v>
       </c>
@@ -14185,13 +12513,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="441" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
       <c r="C441" s="1" t="s">
         <v>344</v>
       </c>
@@ -14214,13 +12538,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="442" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
       <c r="C442" s="1" t="s">
         <v>344</v>
       </c>
@@ -14243,13 +12563,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="443" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
       <c r="C443" s="1" t="s">
         <v>344</v>
       </c>
@@ -14272,13 +12588,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="444" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
       <c r="C444" s="1" t="s">
         <v>344</v>
       </c>
@@ -14301,13 +12613,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="445" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
       <c r="C445" s="1" t="s">
         <v>344</v>
       </c>
@@ -14330,13 +12638,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="446" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
       <c r="C446" s="1" t="s">
         <v>344</v>
       </c>
@@ -14359,13 +12663,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="447" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
       <c r="C447" s="1" t="s">
         <v>344</v>
       </c>
@@ -14388,13 +12688,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="448" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
       <c r="C448" s="1" t="s">
         <v>344</v>
       </c>
@@ -14417,13 +12713,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="449" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
       <c r="C449" s="1" t="s">
         <v>344</v>
       </c>
@@ -14446,13 +12738,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="450" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
       <c r="C450" s="1" t="s">
         <v>344</v>
       </c>
@@ -14475,13 +12763,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A451" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="451" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
       <c r="C451" s="1" t="s">
         <v>344</v>
       </c>
@@ -14504,13 +12788,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A452" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="452" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
       <c r="C452" s="1" t="s">
         <v>344</v>
       </c>
@@ -14533,13 +12813,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A453" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="453" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
       <c r="C453" s="1" t="s">
         <v>344</v>
       </c>
@@ -14562,13 +12838,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A454" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="454" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
       <c r="C454" s="1" t="s">
         <v>344</v>
       </c>
@@ -14591,13 +12863,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A455" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="455" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
       <c r="C455" s="1" t="s">
         <v>344</v>
       </c>
@@ -14620,13 +12888,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="A456" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>334</v>
-      </c>
+    <row r="456" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
       <c r="C456" s="1" t="s">
         <v>344</v>
       </c>
@@ -14651,7 +12915,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
 </worksheet>
 </file>
--- a/psPunchInfo/punchInOut.xlsx
+++ b/psPunchInfo/punchInOut.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="351">
   <si>
     <t>Branch</t>
   </si>
@@ -1991,7 +1991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
@@ -2000,8 +2000,8 @@
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
+      <c r="E22" s="1">
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>35</v>
@@ -2014,6 +2014,9 @@
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <f>I23-I22</f>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,7 +2578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" ht="18" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -2584,8 +2587,8 @@
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
+      <c r="E44" s="1">
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>35</v>
@@ -2598,6 +2601,9 @@
       </c>
       <c r="I44" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="J44" s="2">
+        <f>I45-I44</f>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3106,7 +3112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
@@ -3115,8 +3121,8 @@
       <c r="D64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>14</v>
+      <c r="E64" s="1">
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>35</v>
@@ -3129,6 +3135,9 @@
       </c>
       <c r="I64" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="J64" s="2">
+        <f>I65-I64</f>
       </c>
     </row>
     <row r="65" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3787,7 +3796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
@@ -3796,8 +3805,8 @@
       <c r="D90" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>14</v>
+      <c r="E90" s="1">
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>35</v>
@@ -3810,6 +3819,9 @@
       </c>
       <c r="I90" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="J90" s="2">
+        <f>I92-I90</f>
       </c>
     </row>
     <row r="91" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4421,7 +4433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
@@ -4430,8 +4442,8 @@
       <c r="D114" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>14</v>
+      <c r="E114" s="1">
+        <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>35</v>
@@ -4444,6 +4456,9 @@
       </c>
       <c r="I114" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="J114" s="2">
+        <f>I115-I114</f>
       </c>
     </row>
     <row r="115" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4765,7 +4780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
@@ -4774,8 +4789,8 @@
       <c r="D127" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>14</v>
+      <c r="E127" s="1">
+        <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>35</v>
@@ -4788,6 +4803,9 @@
       </c>
       <c r="I127" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="J127" s="2">
+        <f>I128-I127</f>
       </c>
     </row>
     <row r="128" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5371,7 +5389,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
@@ -5380,8 +5398,8 @@
       <c r="D150" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>14</v>
+      <c r="E150" s="1">
+        <v>1</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>35</v>
@@ -5394,6 +5412,9 @@
       </c>
       <c r="I150" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J150" s="2">
+        <f>I151-I150</f>
       </c>
     </row>
     <row r="151" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,7 +5842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="167" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
@@ -5830,8 +5851,8 @@
       <c r="D167" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>14</v>
+      <c r="E167" s="1">
+        <v>1</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>35</v>
@@ -5844,6 +5865,9 @@
       </c>
       <c r="I167" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="J167" s="2">
+        <f>I168-I167</f>
       </c>
     </row>
     <row r="168" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6299,7 +6323,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
@@ -6308,8 +6332,8 @@
       <c r="D185" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>14</v>
+      <c r="E185" s="1">
+        <v>1</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>35</v>
@@ -6322,6 +6346,9 @@
       </c>
       <c r="I185" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="J185" s="2">
+        <f>I186-I185</f>
       </c>
     </row>
     <row r="186" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6883,7 +6910,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="207" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
@@ -6892,8 +6919,8 @@
       <c r="D207" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>14</v>
+      <c r="E207" s="1">
+        <v>1</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>35</v>
@@ -6906,6 +6933,9 @@
       </c>
       <c r="I207" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="J207" s="2">
+        <f>I208-I207</f>
       </c>
     </row>
     <row r="208" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7414,7 +7444,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
@@ -7423,8 +7453,8 @@
       <c r="D227" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>14</v>
+      <c r="E227" s="1">
+        <v>1</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>35</v>
@@ -7437,6 +7467,9 @@
       </c>
       <c r="I227" s="1" t="s">
         <v>210</v>
+      </c>
+      <c r="J227" s="2">
+        <f>I228-I227</f>
       </c>
     </row>
     <row r="228" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8020,7 +8053,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="250" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1" t="s">
@@ -8029,8 +8062,8 @@
       <c r="D250" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>14</v>
+      <c r="E250" s="1">
+        <v>1</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>34</v>
@@ -8043,6 +8076,9 @@
       </c>
       <c r="I250" s="1" t="s">
         <v>228</v>
+      </c>
+      <c r="J250" s="2">
+        <f>I251-I250</f>
       </c>
     </row>
     <row r="251" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8339,7 +8375,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="262" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1" t="s">
@@ -8348,8 +8384,8 @@
       <c r="D262" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>14</v>
+      <c r="E262" s="1">
+        <v>1</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>30</v>
@@ -8362,6 +8398,9 @@
       </c>
       <c r="I262" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J262" s="2">
+        <f>I263-I262</f>
       </c>
     </row>
     <row r="263" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8870,7 +8909,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="282" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1" t="s">
@@ -8879,8 +8918,8 @@
       <c r="D282" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>14</v>
+      <c r="E282" s="1">
+        <v>1</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>35</v>
@@ -8893,6 +8932,9 @@
       </c>
       <c r="I282" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="J282" s="2">
+        <f>I283-I282</f>
       </c>
     </row>
     <row r="283" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -9479,7 +9521,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="305" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1" t="s">
@@ -9488,8 +9530,8 @@
       <c r="D305" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>14</v>
+      <c r="E305" s="1">
+        <v>1</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>35</v>
@@ -9502,6 +9544,9 @@
       </c>
       <c r="I305" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="J305" s="2">
+        <f>I306-I305</f>
       </c>
     </row>
     <row r="306" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -10063,7 +10108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="327" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -10072,8 +10117,8 @@
       <c r="D327" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>14</v>
+      <c r="E327" s="1">
+        <v>1</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>35</v>
@@ -10086,6 +10131,9 @@
       </c>
       <c r="I327" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="J327" s="2">
+        <f>I328-I327</f>
       </c>
     </row>
     <row r="328" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -10594,7 +10642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="347" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1" t="s">
@@ -10603,8 +10651,8 @@
       <c r="D347" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>14</v>
+      <c r="E347" s="1">
+        <v>1</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>34</v>
@@ -10617,6 +10665,9 @@
       </c>
       <c r="I347" s="1" t="s">
         <v>296</v>
+      </c>
+      <c r="J347" s="2">
+        <f>I348-I347</f>
       </c>
     </row>
     <row r="348" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -11200,7 +11251,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="370" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1" t="s">
@@ -11209,8 +11260,8 @@
       <c r="D370" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>14</v>
+      <c r="E370" s="1">
+        <v>1</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>35</v>
@@ -11223,6 +11274,9 @@
       </c>
       <c r="I370" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="J370" s="2">
+        <f>I371-I370</f>
       </c>
     </row>
     <row r="371" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -11756,7 +11810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="391" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1" t="s">
@@ -11765,8 +11819,8 @@
       <c r="D391" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>14</v>
+      <c r="E391" s="1">
+        <v>1</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>34</v>
@@ -11779,6 +11833,9 @@
       </c>
       <c r="I391" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="J391" s="2">
+        <f>I392-I391</f>
       </c>
     </row>
     <row r="392" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12259,7 +12316,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="410" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1" t="s">
@@ -12268,8 +12325,8 @@
       <c r="D410" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>14</v>
+      <c r="E410" s="1">
+        <v>1</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>34</v>
@@ -12282,6 +12339,9 @@
       </c>
       <c r="I410" s="1" t="s">
         <v>333</v>
+      </c>
+      <c r="J410" s="2">
+        <f>I411-I410</f>
       </c>
     </row>
     <row r="411" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12868,7 +12928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="433" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" ht="18" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1" t="s">
@@ -12877,8 +12937,8 @@
       <c r="D433" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>14</v>
+      <c r="E433" s="1">
+        <v>1</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>35</v>
@@ -12891,6 +12951,9 @@
       </c>
       <c r="I433" s="1" t="s">
         <v>339</v>
+      </c>
+      <c r="J433" s="2">
+        <f>I434-I433</f>
       </c>
     </row>
     <row r="434" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -13452,7 +13515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="455" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" ht="36" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1" t="s">
@@ -13461,8 +13524,8 @@
       <c r="D455" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>14</v>
+      <c r="E455" s="1">
+        <v>1</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>35</v>
@@ -13475,6 +13538,9 @@
       </c>
       <c r="I455" s="1" t="s">
         <v>348</v>
+      </c>
+      <c r="J455" s="2">
+        <f>I456-I455</f>
       </c>
     </row>
     <row r="456" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/psPunchInfo/punchInOut.xlsx
+++ b/psPunchInfo/punchInOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -1152,10 +1152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1413,10 +1413,10 @@
   <dimension ref="A1:J456"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B455" sqref="B455"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
